--- a/Docs/CrossOver e Mutation.xlsx
+++ b/Docs/CrossOver e Mutation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Crossover" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="17">
   <si>
     <t>Individuo 1</t>
   </si>
@@ -61,6 +61,21 @@
   </si>
   <si>
     <t>Esquerda</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>MutateSM</t>
+  </si>
+  <si>
+    <t>Individuo</t>
+  </si>
+  <si>
+    <t>Resultado Final</t>
+  </si>
+  <si>
+    <t>Resultado Parcial</t>
   </si>
 </sst>
 </file>
@@ -97,18 +112,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -131,22 +146,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,364 +621,502 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="G4" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B8" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="G13" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="G22" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A20:G20"/>
-    <mergeCell ref="A24:G24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -827,12 +1125,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A12:G12"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Docs/CrossOver e Mutation.xlsx
+++ b/Docs/CrossOver e Mutation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="23">
   <si>
     <t>Individuo 1</t>
   </si>
@@ -76,6 +76,24 @@
   </si>
   <si>
     <t>Resultado Parcial</t>
+  </si>
+  <si>
+    <t>MutateEM</t>
+  </si>
+  <si>
+    <t>MutateDM</t>
+  </si>
+  <si>
+    <t>MutateIM</t>
+  </si>
+  <si>
+    <t>Resultado 2</t>
+  </si>
+  <si>
+    <t>Resultado 1</t>
+  </si>
+  <si>
+    <t>MutateIVM</t>
   </si>
 </sst>
 </file>
@@ -97,7 +115,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,8 +140,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -150,37 +174,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -270,43 +263,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,7 +707,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="A23" sqref="A23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -638,30 +721,30 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -679,12 +762,12 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -702,32 +785,32 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -745,58 +828,58 @@
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="22" t="s">
+      <c r="B8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -814,12 +897,12 @@
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -837,32 +920,32 @@
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="17"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -880,58 +963,58 @@
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="20" t="s">
+      <c r="B17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="F17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="12"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -949,12 +1032,12 @@
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -972,32 +1055,32 @@
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="17"/>
+      <c r="A23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="12"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1015,12 +1098,12 @@
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -1038,32 +1121,32 @@
       <c r="F26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
+      <c r="A27" s="10"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="17"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="12"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -1081,35 +1164,40 @@
       <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="16" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A28:G28"/>
     <mergeCell ref="A2:G2"/>
@@ -1117,6 +1205,7 @@
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1125,10 +1214,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:G13"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,29 +1226,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="A1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="12"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1171,84 +1260,84 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="24" t="s">
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1260,66 +1349,476 @@
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="E10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="17"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="22" t="s">
+      <c r="B13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="25">
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A42:G42"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>